--- a/NRI_STLF_Data/WeatherData/T_tabriz/T_tabriz95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_tabriz/T_tabriz95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_tabriz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_tabriz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -242,12 +242,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -581,13 +581,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="B153" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -670,7 +670,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -747,7 +747,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -827,7 +827,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -904,7 +904,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -981,7 +981,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -13259,8 +13259,68 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>36</v>
+      </c>
+      <c r="G161">
+        <v>27</v>
+      </c>
+      <c r="H161">
+        <v>18</v>
+      </c>
+      <c r="I161">
+        <v>11</v>
+      </c>
+      <c r="J161">
+        <v>6</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>49</v>
+      </c>
+      <c r="M161">
+        <v>26</v>
+      </c>
+      <c r="N161">
+        <v>7</v>
+      </c>
+      <c r="O161">
+        <v>1023</v>
+      </c>
+      <c r="P161">
+        <v>1019</v>
+      </c>
+      <c r="Q161">
+        <v>1007</v>
+      </c>
+      <c r="R161">
+        <v>14</v>
+      </c>
+      <c r="S161">
+        <v>10</v>
+      </c>
+      <c r="T161">
+        <v>10</v>
+      </c>
+      <c r="U161">
+        <v>29</v>
+      </c>
+      <c r="V161">
+        <v>11</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>2</v>
+      </c>
+      <c r="AA161">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -13276,8 +13336,68 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>37</v>
+      </c>
+      <c r="G162">
+        <v>30</v>
+      </c>
+      <c r="H162">
+        <v>23</v>
+      </c>
+      <c r="I162">
+        <v>13</v>
+      </c>
+      <c r="J162">
+        <v>8</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>50</v>
+      </c>
+      <c r="M162">
+        <v>27</v>
+      </c>
+      <c r="N162">
+        <v>7</v>
+      </c>
+      <c r="O162">
+        <v>1022</v>
+      </c>
+      <c r="P162">
+        <v>1018</v>
+      </c>
+      <c r="Q162">
+        <v>1006</v>
+      </c>
+      <c r="R162">
+        <v>11</v>
+      </c>
+      <c r="S162">
+        <v>9</v>
+      </c>
+      <c r="T162">
+        <v>6</v>
+      </c>
+      <c r="U162">
+        <v>29</v>
+      </c>
+      <c r="V162">
+        <v>11</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>2</v>
+      </c>
+      <c r="AA162">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -13293,8 +13413,68 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>37</v>
+      </c>
+      <c r="G163">
+        <v>28</v>
+      </c>
+      <c r="H163">
+        <v>20</v>
+      </c>
+      <c r="I163">
+        <v>9</v>
+      </c>
+      <c r="J163">
+        <v>4</v>
+      </c>
+      <c r="K163">
+        <v>-1</v>
+      </c>
+      <c r="L163">
+        <v>37</v>
+      </c>
+      <c r="M163">
+        <v>21</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163">
+        <v>1020</v>
+      </c>
+      <c r="P163">
+        <v>1017</v>
+      </c>
+      <c r="Q163">
+        <v>1004</v>
+      </c>
+      <c r="R163">
+        <v>11</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>10</v>
+      </c>
+      <c r="U163">
+        <v>29</v>
+      </c>
+      <c r="V163">
+        <v>11</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>2</v>
+      </c>
+      <c r="AA163">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -13310,8 +13490,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>37</v>
+      </c>
+      <c r="G164">
+        <v>29</v>
+      </c>
+      <c r="H164">
+        <v>21</v>
+      </c>
+      <c r="I164">
+        <v>13</v>
+      </c>
+      <c r="J164">
+        <v>8</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>53</v>
+      </c>
+      <c r="M164">
+        <v>29</v>
+      </c>
+      <c r="N164">
+        <v>7</v>
+      </c>
+      <c r="O164">
+        <v>1020</v>
+      </c>
+      <c r="P164">
+        <v>1016</v>
+      </c>
+      <c r="Q164">
+        <v>1005</v>
+      </c>
+      <c r="R164">
+        <v>11</v>
+      </c>
+      <c r="S164">
+        <v>10</v>
+      </c>
+      <c r="T164">
+        <v>10</v>
+      </c>
+      <c r="U164">
+        <v>26</v>
+      </c>
+      <c r="V164">
+        <v>8</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>2</v>
+      </c>
+      <c r="AA164">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -13327,8 +13567,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>37</v>
+      </c>
+      <c r="G165">
+        <v>30</v>
+      </c>
+      <c r="H165">
+        <v>23</v>
+      </c>
+      <c r="I165">
+        <v>7</v>
+      </c>
+      <c r="J165">
+        <v>4</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>33</v>
+      </c>
+      <c r="M165">
+        <v>20</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165">
+        <v>1017</v>
+      </c>
+      <c r="P165">
+        <v>1013</v>
+      </c>
+      <c r="Q165">
+        <v>1001</v>
+      </c>
+      <c r="R165">
+        <v>10</v>
+      </c>
+      <c r="S165">
+        <v>8</v>
+      </c>
+      <c r="T165">
+        <v>6</v>
+      </c>
+      <c r="U165">
+        <v>23</v>
+      </c>
+      <c r="V165">
+        <v>10</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>2</v>
+      </c>
+      <c r="AA165">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -13344,8 +13644,71 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>36</v>
+      </c>
+      <c r="G166">
+        <v>28</v>
+      </c>
+      <c r="H166">
+        <v>21</v>
+      </c>
+      <c r="I166">
+        <v>13</v>
+      </c>
+      <c r="J166">
+        <v>6</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>47</v>
+      </c>
+      <c r="M166">
+        <v>23</v>
+      </c>
+      <c r="N166">
+        <v>6</v>
+      </c>
+      <c r="O166">
+        <v>1014</v>
+      </c>
+      <c r="P166">
+        <v>1010</v>
+      </c>
+      <c r="Q166">
+        <v>997</v>
+      </c>
+      <c r="R166">
+        <v>10</v>
+      </c>
+      <c r="S166">
+        <v>9</v>
+      </c>
+      <c r="T166">
+        <v>6</v>
+      </c>
+      <c r="U166">
+        <v>34</v>
+      </c>
+      <c r="V166">
+        <v>11</v>
+      </c>
+      <c r="W166">
+        <v>47</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>2</v>
+      </c>
+      <c r="AA166">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -13361,8 +13724,68 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>31</v>
+      </c>
+      <c r="G167">
+        <v>26</v>
+      </c>
+      <c r="H167">
+        <v>20</v>
+      </c>
+      <c r="I167">
+        <v>14</v>
+      </c>
+      <c r="J167">
+        <v>11</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>64</v>
+      </c>
+      <c r="M167">
+        <v>43</v>
+      </c>
+      <c r="N167">
+        <v>10</v>
+      </c>
+      <c r="O167">
+        <v>1015</v>
+      </c>
+      <c r="P167">
+        <v>1012</v>
+      </c>
+      <c r="Q167">
+        <v>1001</v>
+      </c>
+      <c r="R167">
+        <v>18</v>
+      </c>
+      <c r="S167">
+        <v>11</v>
+      </c>
+      <c r="T167">
+        <v>10</v>
+      </c>
+      <c r="U167">
+        <v>39</v>
+      </c>
+      <c r="V167">
+        <v>19</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>1</v>
+      </c>
+      <c r="AA167">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -13378,8 +13801,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>31</v>
+      </c>
+      <c r="G168">
+        <v>24</v>
+      </c>
+      <c r="H168">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -13395,8 +13827,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>33</v>
+      </c>
+      <c r="G169">
+        <v>26</v>
+      </c>
+      <c r="H169">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -13412,8 +13853,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>31</v>
+      </c>
+      <c r="G170">
+        <v>24</v>
+      </c>
+      <c r="H170">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -13429,8 +13879,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>31</v>
+      </c>
+      <c r="G171">
+        <v>24</v>
+      </c>
+      <c r="H171">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -13446,8 +13905,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>28</v>
+      </c>
+      <c r="G172">
+        <v>22</v>
+      </c>
+      <c r="H172">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -13464,7 +13932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -13481,7 +13949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13498,7 +13966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13515,7 +13983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13532,7 +14000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13549,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13566,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13583,7 +14051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13600,7 +14068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13617,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13634,7 +14102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13651,7 +14119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13668,7 +14136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13685,7 +14153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13702,7 +14170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13719,7 +14187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13736,7 +14204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13753,7 +14221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13770,7 +14238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13787,7 +14255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13804,7 +14272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13821,7 +14289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13838,7 +14306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13855,7 +14323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13872,7 +14340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13889,7 +14357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13906,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13923,7 +14391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13940,7 +14408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13957,7 +14425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13974,7 +14442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13991,7 +14459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -14008,7 +14476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -14025,7 +14493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -14042,7 +14510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -14059,7 +14527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -14076,7 +14544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -14093,7 +14561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -14110,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -14127,7 +14595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -14144,7 +14612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -14161,7 +14629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -14178,7 +14646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -14195,7 +14663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -14212,7 +14680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -14229,7 +14697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -14246,7 +14714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -14263,7 +14731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -14280,7 +14748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -14297,7 +14765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -14314,7 +14782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -14331,7 +14799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -14348,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -14365,7 +14833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -14382,7 +14850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -14399,7 +14867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -14416,7 +14884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -14433,7 +14901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -14450,7 +14918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14467,7 +14935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14484,7 +14952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14501,7 +14969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14518,7 +14986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14535,7 +15003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14552,7 +15020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14569,7 +15037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14586,7 +15054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14603,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14620,7 +15088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14637,7 +15105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14654,7 +15122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14671,7 +15139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14688,7 +15156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14705,7 +15173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14722,7 +15190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14739,7 +15207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14756,7 +15224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14773,7 +15241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14790,7 +15258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14807,7 +15275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14824,7 +15292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14841,7 +15309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14858,7 +15326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14875,7 +15343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14892,7 +15360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14909,7 +15377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14926,7 +15394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14943,7 +15411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14960,7 +15428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14977,7 +15445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14994,7 +15462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -15011,7 +15479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -15028,7 +15496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -15045,7 +15513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -15062,7 +15530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -15079,7 +15547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -15096,7 +15564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -15113,7 +15581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -15130,7 +15598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -15147,7 +15615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -15164,7 +15632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -15181,7 +15649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -15198,7 +15666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -15215,7 +15683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -15232,7 +15700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -15249,7 +15717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -15266,7 +15734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -15283,7 +15751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -15300,7 +15768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -15317,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -15334,7 +15802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -15351,7 +15819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -15368,7 +15836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -15385,7 +15853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -15402,7 +15870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -15419,7 +15887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -15436,7 +15904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -15453,7 +15921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15470,7 +15938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15487,7 +15955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15504,7 +15972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15521,7 +15989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15538,7 +16006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15555,7 +16023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15572,7 +16040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15589,7 +16057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15606,7 +16074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15623,7 +16091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15640,7 +16108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15657,7 +16125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15674,7 +16142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15691,7 +16159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15708,7 +16176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15725,7 +16193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15742,7 +16210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15759,7 +16227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15776,7 +16244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15793,7 +16261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15810,7 +16278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15827,7 +16295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15844,7 +16312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15861,7 +16329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15878,7 +16346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15895,7 +16363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15912,7 +16380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15929,7 +16397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15946,7 +16414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15963,7 +16431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15980,7 +16448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15997,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -16014,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -16031,7 +16499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -16048,7 +16516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -16065,7 +16533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -16082,7 +16550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -16099,7 +16567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -16116,7 +16584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -16133,7 +16601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -16150,7 +16618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -16167,7 +16635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -16184,7 +16652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -16201,7 +16669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -16218,7 +16686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -16235,7 +16703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -16252,7 +16720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -16269,7 +16737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -16286,7 +16754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -16303,7 +16771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -16320,7 +16788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -16337,7 +16805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -16354,7 +16822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -16371,7 +16839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -16388,7 +16856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -16405,7 +16873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -16422,7 +16890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -16439,7 +16907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -16456,7 +16924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -16473,7 +16941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16490,7 +16958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16507,7 +16975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16524,7 +16992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16541,7 +17009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16558,7 +17026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16575,7 +17043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16592,7 +17060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16609,7 +17077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16626,7 +17094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16643,7 +17111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16660,7 +17128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16677,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16694,7 +17162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16711,7 +17179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16728,7 +17196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16756,7 +17224,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16768,7 +17236,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
